--- a/Jupyter/datosdecodificados.xlsx
+++ b/Jupyter/datosdecodificados.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo\Documents\GitHub\group4_TCE_2024\Jupyter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cliente\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD39841E-6C04-46C1-9E29-87AA8FA8A6CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88803D90-AEC6-4C0F-B158-C5B2269E8304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ACC2B1C0-D2A8-4737-9219-E75674099BFA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Tiempo(s)</t>
   </si>
@@ -46,12 +46,6 @@
   </si>
   <si>
     <t>0.13333333333333333</t>
-  </si>
-  <si>
-    <t>0.06666666666666667</t>
-  </si>
-  <si>
-    <t>0.0</t>
   </si>
 </sst>
 </file>
@@ -426,7 +420,7 @@
   <dimension ref="A1:C128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G118" sqref="G118"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,8 +457,8 @@
       <c r="B3" s="2">
         <v>91.375558278763791</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
+      <c r="C3">
+        <v>0.19999999999999951</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -474,8 +468,8 @@
       <c r="B4" s="2">
         <v>93.177147076178727</v>
       </c>
-      <c r="C4" t="s">
-        <v>3</v>
+      <c r="C4">
+        <v>0.24444444444444385</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -485,8 +479,8 @@
       <c r="B5" s="2">
         <v>92.253069689427122</v>
       </c>
-      <c r="C5" t="s">
-        <v>3</v>
+      <c r="C5">
+        <v>0.27777777777777712</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -496,8 +490,8 @@
       <c r="B6" s="2">
         <v>93.297168484567379</v>
       </c>
-      <c r="C6" t="s">
-        <v>3</v>
+      <c r="C6">
+        <v>0.30444444444444374</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -507,8 +501,8 @@
       <c r="B7" s="2">
         <v>96.633351014255055</v>
       </c>
-      <c r="C7" t="s">
-        <v>3</v>
+      <c r="C7">
+        <v>0.32666666666666588</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -518,8 +512,8 @@
       <c r="B8" s="2">
         <v>94.108948834414264</v>
       </c>
-      <c r="C8" t="s">
-        <v>3</v>
+      <c r="C8">
+        <v>0.34571428571428486</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -529,8 +523,8 @@
       <c r="B9" s="2">
         <v>96.089117287526733</v>
       </c>
-      <c r="C9" t="s">
-        <v>4</v>
+      <c r="C9">
+        <v>0.35404761904761817</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -540,8 +534,8 @@
       <c r="B10" s="2">
         <v>97.134970662283322</v>
       </c>
-      <c r="C10" t="s">
-        <v>3</v>
+      <c r="C10">
+        <v>0.36886243386243295</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -551,8 +545,8 @@
       <c r="B11" s="2">
         <v>97.635170753697238</v>
       </c>
-      <c r="C11" t="s">
-        <v>3</v>
+      <c r="C11">
+        <v>0.38219576719576626</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -562,8 +556,8 @@
       <c r="B12" s="2">
         <v>99.89181733677303</v>
       </c>
-      <c r="C12" t="s">
-        <v>3</v>
+      <c r="C12">
+        <v>0.39431697931697834</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -573,8 +567,8 @@
       <c r="B13" s="2">
         <v>100.76836964862848</v>
       </c>
-      <c r="C13" t="s">
-        <v>3</v>
+      <c r="C13">
+        <v>0.40542809042808942</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -584,8 +578,8 @@
       <c r="B14" s="2">
         <v>101.79924491456738</v>
       </c>
-      <c r="C14" t="s">
-        <v>3</v>
+      <c r="C14">
+        <v>0.41568450068449964</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -595,8 +589,8 @@
       <c r="B15" s="2">
         <v>102.18859768141682</v>
       </c>
-      <c r="C15" t="s">
-        <v>3</v>
+      <c r="C15">
+        <v>0.42520831020830913</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -606,8 +600,8 @@
       <c r="B16" s="2">
         <v>101.73499105171517</v>
       </c>
-      <c r="C16" t="s">
-        <v>3</v>
+      <c r="C16">
+        <v>0.43409719909719802</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -617,8 +611,8 @@
       <c r="B17" s="2">
         <v>101.84090307799282</v>
       </c>
-      <c r="C17" t="s">
-        <v>3</v>
+      <c r="C17">
+        <v>0.44243053243053132</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -628,8 +622,8 @@
       <c r="B18" s="2">
         <v>103.69876675699561</v>
       </c>
-      <c r="C18" t="s">
-        <v>3</v>
+      <c r="C18">
+        <v>0.45027366968543325</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -639,8 +633,8 @@
       <c r="B19" s="2">
         <v>106.19464057203966</v>
       </c>
-      <c r="C19" t="s">
-        <v>4</v>
+      <c r="C19">
+        <v>0.45397737338913696</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -650,8 +644,8 @@
       <c r="B20" s="2">
         <v>105.78660202916444</v>
       </c>
-      <c r="C20" t="s">
-        <v>4</v>
+      <c r="C20">
+        <v>0.45748614531896153</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -661,8 +655,8 @@
       <c r="B21" s="2">
         <v>106.26514613330689</v>
       </c>
-      <c r="C21" t="s">
-        <v>4</v>
+      <c r="C21">
+        <v>0.46081947865229489</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -672,8 +666,8 @@
       <c r="B22" s="2">
         <v>106.85381583345001</v>
       </c>
-      <c r="C22" t="s">
-        <v>3</v>
+      <c r="C22">
+        <v>0.46716868500150122</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -683,8 +677,8 @@
       <c r="B23" s="2">
         <v>108.62542583062475</v>
       </c>
-      <c r="C23" t="s">
-        <v>3</v>
+      <c r="C23">
+        <v>0.47322929106210726</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -694,8 +688,8 @@
       <c r="B24" s="2">
         <v>107.52757800181062</v>
       </c>
-      <c r="C24" t="s">
-        <v>3</v>
+      <c r="C24">
+        <v>0.47902639251138263</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -705,8 +699,8 @@
       <c r="B25" s="2">
         <v>110.21762244629471</v>
       </c>
-      <c r="C25" t="s">
-        <v>3</v>
+      <c r="C25">
+        <v>0.48458194806693816</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -716,8 +710,8 @@
       <c r="B26" s="2">
         <v>109.47806243423122</v>
       </c>
-      <c r="C26" t="s">
-        <v>3</v>
+      <c r="C26">
+        <v>0.48991528140027146</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -727,8 +721,8 @@
       <c r="B27" s="2">
         <v>109.99405267012008</v>
       </c>
-      <c r="C27" t="s">
-        <v>3</v>
+      <c r="C27">
+        <v>0.49504348652847657</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -738,8 +732,8 @@
       <c r="B28" s="2">
         <v>112.61166031175756</v>
       </c>
-      <c r="C28" t="s">
-        <v>4</v>
+      <c r="C28">
+        <v>0.49751262233094573</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -749,8 +743,8 @@
       <c r="B29" s="2">
         <v>111.07620165509475</v>
       </c>
-      <c r="C29" t="s">
-        <v>3</v>
+      <c r="C29">
+        <v>0.50227452709285048</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -760,8 +754,8 @@
       <c r="B30" s="2">
         <v>112.73611202225301</v>
       </c>
-      <c r="C30" t="s">
-        <v>4</v>
+      <c r="C30">
+        <v>0.50457337766756316</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -771,8 +765,8 @@
       <c r="B31" s="2">
         <v>112.619194423246</v>
       </c>
-      <c r="C31" t="s">
-        <v>4</v>
+      <c r="C31">
+        <v>0.5067955998897854</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -782,8 +776,8 @@
       <c r="B32" s="2">
         <v>111.93790255336756</v>
       </c>
-      <c r="C32" t="s">
-        <v>3</v>
+      <c r="C32">
+        <v>0.51109667515860258</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -793,8 +787,8 @@
       <c r="B33" s="2">
         <v>114.70110700720785</v>
       </c>
-      <c r="C33" t="s">
-        <v>4</v>
+      <c r="C33">
+        <v>0.5131800084919359</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -804,8 +798,8 @@
       <c r="B34" s="2">
         <v>114.65469192825452</v>
       </c>
-      <c r="C34" t="s">
-        <v>4</v>
+      <c r="C34">
+        <v>0.51520021051213793</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -815,8 +809,8 @@
       <c r="B35" s="2">
         <v>114.83544601498599</v>
       </c>
-      <c r="C35" t="s">
-        <v>4</v>
+      <c r="C35">
+        <v>0.51716099482586342</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -826,8 +820,8 @@
       <c r="B36" s="2">
         <v>116.70353908680546</v>
       </c>
-      <c r="C36" t="s">
-        <v>5</v>
+      <c r="C36">
+        <v>0.51716099482586342</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -837,8 +831,8 @@
       <c r="B37" s="2">
         <v>117.47474642155456</v>
       </c>
-      <c r="C37" t="s">
-        <v>5</v>
+      <c r="C37">
+        <v>0.51716099482586342</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -848,8 +842,8 @@
       <c r="B38" s="2">
         <v>116.77193324685295</v>
       </c>
-      <c r="C38" t="s">
-        <v>5</v>
+      <c r="C38">
+        <v>0.51716099482586342</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -859,8 +853,8 @@
       <c r="B39" s="2">
         <v>120.64445048499002</v>
       </c>
-      <c r="C39" t="s">
-        <v>4</v>
+      <c r="C39">
+        <v>0.5189153807907757</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -870,8 +864,8 @@
       <c r="B40" s="2">
         <v>118.7684170512149</v>
       </c>
-      <c r="C40" t="s">
-        <v>4</v>
+      <c r="C40">
+        <v>0.52062478250017741</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -881,8 +875,8 @@
       <c r="B41" s="2">
         <v>120.09596350178649</v>
       </c>
-      <c r="C41" t="s">
-        <v>3</v>
+      <c r="C41">
+        <v>0.52395811583351071</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -892,8 +886,8 @@
       <c r="B42" s="2">
         <v>122.02516230497726</v>
       </c>
-      <c r="C42" t="s">
-        <v>3</v>
+      <c r="C42">
+        <v>0.52721014835383595</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -903,8 +897,8 @@
       <c r="B43" s="2">
         <v>120.55328205604934</v>
       </c>
-      <c r="C43" t="s">
-        <v>4</v>
+      <c r="C43">
+        <v>0.52879744994113753</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -914,8 +908,8 @@
       <c r="B44" s="2">
         <v>121.95092942071415</v>
       </c>
-      <c r="C44" t="s">
-        <v>3</v>
+      <c r="C44">
+        <v>0.53189822513493601</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -925,8 +919,8 @@
       <c r="B45" s="2">
         <v>122.64906409299857</v>
       </c>
-      <c r="C45" t="s">
-        <v>4</v>
+      <c r="C45">
+        <v>0.53341337665008748</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -936,8 +930,8 @@
       <c r="B46" s="2">
         <v>123.02754917705752</v>
       </c>
-      <c r="C46" t="s">
-        <v>4</v>
+      <c r="C46">
+        <v>0.53489485813156901</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -947,8 +941,8 @@
       <c r="B47" s="2">
         <v>123.22437302987487</v>
       </c>
-      <c r="C47" t="s">
-        <v>4</v>
+      <c r="C47">
+        <v>0.53634413349388788</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -958,8 +952,8 @@
       <c r="B48" s="2">
         <v>123.50415670035969</v>
       </c>
-      <c r="C48" t="s">
-        <v>3</v>
+      <c r="C48">
+        <v>0.53918101292651199</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -969,8 +963,8 @@
       <c r="B49" s="2">
         <v>122.16419792691232</v>
       </c>
-      <c r="C49" t="s">
-        <v>3</v>
+      <c r="C49">
+        <v>0.54195879070428976</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -980,8 +974,8 @@
       <c r="B50" s="2">
         <v>124.48506439451607</v>
       </c>
-      <c r="C50" t="s">
-        <v>3</v>
+      <c r="C50">
+        <v>0.54467987913966387</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -991,8 +985,8 @@
       <c r="B51" s="2">
         <v>126.36693229903071</v>
       </c>
-      <c r="C51" t="s">
-        <v>3</v>
+      <c r="C51">
+        <v>0.54734654580633058</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1002,8 +996,8 @@
       <c r="B52" s="2">
         <v>126.9649393028692</v>
       </c>
-      <c r="C52" t="s">
-        <v>5</v>
+      <c r="C52">
+        <v>0.54734654580633058</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1013,8 +1007,8 @@
       <c r="B53" s="2">
         <v>125.5532054441581</v>
       </c>
-      <c r="C53" t="s">
-        <v>3</v>
+      <c r="C53">
+        <v>0.54991064837043313</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1024,8 +1018,8 @@
       <c r="B54" s="2">
         <v>128.33881061673742</v>
       </c>
-      <c r="C54" t="s">
-        <v>4</v>
+      <c r="C54">
+        <v>0.55116851000565326</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1035,8 +1029,8 @@
       <c r="B55" s="2">
         <v>130.07835013075859</v>
       </c>
-      <c r="C55" t="s">
-        <v>3</v>
+      <c r="C55">
+        <v>0.55363764580812236</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1046,8 +1040,8 @@
       <c r="B56" s="2">
         <v>127.27323382648622</v>
       </c>
-      <c r="C56" t="s">
-        <v>5</v>
+      <c r="C56">
+        <v>0.55363764580812236</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1057,8 +1051,8 @@
       <c r="B57" s="2">
         <v>130.61547209157266</v>
       </c>
-      <c r="C57" t="s">
-        <v>3</v>
+      <c r="C57">
+        <v>0.55601859818907473</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1068,8 +1062,8 @@
       <c r="B58" s="2">
         <v>128.82655911782038</v>
       </c>
-      <c r="C58" t="s">
-        <v>3</v>
+      <c r="C58">
+        <v>0.55835777947562448</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1079,8 +1073,8 @@
       <c r="B59" s="2">
         <v>131.24861042453358</v>
       </c>
-      <c r="C59" t="s">
-        <v>3</v>
+      <c r="C59">
+        <v>0.56065663005033717</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1090,8 +1084,8 @@
       <c r="B60" s="2">
         <v>131.92726911485735</v>
       </c>
-      <c r="C60" t="s">
-        <v>3</v>
+      <c r="C60">
+        <v>0.56291651705598689</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1101,8 +1095,8 @@
       <c r="B61" s="2">
         <v>132.6390226850441</v>
       </c>
-      <c r="C61" t="s">
-        <v>3</v>
+      <c r="C61">
+        <v>0.56513873927820912</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1112,8 +1106,8 @@
       <c r="B62" s="2">
         <v>133.31563509364241</v>
       </c>
-      <c r="C62" t="s">
-        <v>3</v>
+      <c r="C62">
+        <v>0.56732453162793595</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1123,8 +1117,8 @@
       <c r="B63" s="2">
         <v>136.60379837366375</v>
       </c>
-      <c r="C63" t="s">
-        <v>3</v>
+      <c r="C63">
+        <v>0.56947506926234459</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1134,8 +1128,8 @@
       <c r="B64" s="2">
         <v>137.09964424663718</v>
       </c>
-      <c r="C64" t="s">
-        <v>3</v>
+      <c r="C64">
+        <v>0.57159147137874666</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1145,8 +1139,8 @@
       <c r="B65" s="2">
         <v>138.67980443029731</v>
       </c>
-      <c r="C65" t="s">
-        <v>3</v>
+      <c r="C65">
+        <v>0.57367480471207999</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1156,8 +1150,8 @@
       <c r="B66" s="2">
         <v>140.01915730617051</v>
       </c>
-      <c r="C66" t="s">
-        <v>3</v>
+      <c r="C66">
+        <v>0.57572608676336201</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1167,8 +1161,8 @@
       <c r="B67" s="2">
         <v>138.83717380833951</v>
       </c>
-      <c r="C67" t="s">
-        <v>3</v>
+      <c r="C67">
+        <v>0.57774628878356404</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1178,8 +1172,8 @@
       <c r="B68" s="2">
         <v>141.61553971443104</v>
       </c>
-      <c r="C68" t="s">
-        <v>3</v>
+      <c r="C68">
+        <v>0.57973633853480777</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1189,8 +1183,8 @@
       <c r="B69" s="2">
         <v>142.64469016354769</v>
       </c>
-      <c r="C69" t="s">
-        <v>3</v>
+      <c r="C69">
+        <v>0.58169712284853325</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1200,8 +1194,8 @@
       <c r="B70" s="2">
         <v>142.01852341643996</v>
       </c>
-      <c r="C70" t="s">
-        <v>3</v>
+      <c r="C70">
+        <v>0.58362948999829167</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1211,8 +1205,8 @@
       <c r="B71" s="2">
         <v>143.72098254870471</v>
       </c>
-      <c r="C71" t="s">
-        <v>3</v>
+      <c r="C71">
+        <v>0.58553425190305353</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1222,8 +1216,8 @@
       <c r="B72" s="2">
         <v>143.46577413019185</v>
       </c>
-      <c r="C72" t="s">
-        <v>3</v>
+      <c r="C72">
+        <v>0.58741218617535396</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1233,8 +1227,8 @@
       <c r="B73" s="2">
         <v>146.00974402273766</v>
       </c>
-      <c r="C73" t="s">
-        <v>3</v>
+      <c r="C73">
+        <v>0.58926403802720584</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1244,8 +1238,8 @@
       <c r="B74" s="2">
         <v>147.25730472032379</v>
       </c>
-      <c r="C74" t="s">
-        <v>3</v>
+      <c r="C74">
+        <v>0.59109052204547063</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1255,8 +1249,8 @@
       <c r="B75" s="2">
         <v>150.05518379857381</v>
       </c>
-      <c r="C75" t="s">
-        <v>3</v>
+      <c r="C75">
+        <v>0.59289232384727242</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -1266,8 +1260,8 @@
       <c r="B76" s="2">
         <v>147.96411493867177</v>
       </c>
-      <c r="C76" t="s">
-        <v>3</v>
+      <c r="C76">
+        <v>0.59467010162505018</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1277,8 +1271,8 @@
       <c r="B77" s="2">
         <v>149.59772158482903</v>
       </c>
-      <c r="C77" t="s">
-        <v>3</v>
+      <c r="C77">
+        <v>0.59642448758996247</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1288,8 +1282,8 @@
       <c r="B78" s="2">
         <v>152.60827393873248</v>
       </c>
-      <c r="C78" t="s">
-        <v>3</v>
+      <c r="C78">
+        <v>0.59815608932156417</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1299,8 +1293,8 @@
       <c r="B79" s="2">
         <v>152.63975997783834</v>
       </c>
-      <c r="C79" t="s">
-        <v>3</v>
+      <c r="C79">
+        <v>0.59986549103096587</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1310,8 +1304,8 @@
       <c r="B80" s="2">
         <v>152.67266218464562</v>
       </c>
-      <c r="C80" t="s">
-        <v>3</v>
+      <c r="C80">
+        <v>0.60155325474404608</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1321,8 +1315,8 @@
       <c r="B81" s="2">
         <v>152.6893325610491</v>
       </c>
-      <c r="C81" t="s">
-        <v>3</v>
+      <c r="C81">
+        <v>0.60321992141071279</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -1332,8 +1326,8 @@
       <c r="B82" s="2">
         <v>155.79300874271107</v>
       </c>
-      <c r="C82" t="s">
-        <v>3</v>
+      <c r="C82">
+        <v>0.60486601194569223</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -1343,8 +1337,8 @@
       <c r="B83" s="2">
         <v>157.18335695072091</v>
       </c>
-      <c r="C83" t="s">
-        <v>3</v>
+      <c r="C83">
+        <v>0.60649202820585479</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -1354,8 +1348,8 @@
       <c r="B84" s="2">
         <v>156.08964337622476</v>
       </c>
-      <c r="C84" t="s">
-        <v>3</v>
+      <c r="C84">
+        <v>0.60809845390866601</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -1365,8 +1359,8 @@
       <c r="B85" s="2">
         <v>157.151393203174</v>
       </c>
-      <c r="C85" t="s">
-        <v>4</v>
+      <c r="C85">
+        <v>0.60889210470231681</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -1376,8 +1370,8 @@
       <c r="B86" s="2">
         <v>159.39018364012418</v>
       </c>
-      <c r="C86" t="s">
-        <v>4</v>
+      <c r="C86">
+        <v>0.60967641842780695</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1387,8 +1381,8 @@
       <c r="B87" s="2">
         <v>159.12853633624553</v>
       </c>
-      <c r="C87" t="s">
-        <v>4</v>
+      <c r="C87">
+        <v>0.61045161222625655</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -1398,8 +1392,8 @@
       <c r="B88" s="2">
         <v>163.59662364171521</v>
       </c>
-      <c r="C88" t="s">
-        <v>3</v>
+      <c r="C88">
+        <v>0.61198417927606497</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -1409,8 +1403,8 @@
       <c r="B89" s="2">
         <v>163.47807581677944</v>
       </c>
-      <c r="C89" t="s">
-        <v>4</v>
+      <c r="C89">
+        <v>0.6127417550336407</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -1420,8 +1414,8 @@
       <c r="B90" s="2">
         <v>163.70658689051689</v>
       </c>
-      <c r="C90" t="s">
-        <v>3</v>
+      <c r="C90">
+        <v>0.6142398823744647</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -1431,8 +1425,8 @@
       <c r="B91" s="2">
         <v>164.60896184949158</v>
       </c>
-      <c r="C91" t="s">
-        <v>3</v>
+      <c r="C91">
+        <v>0.61572136385594622</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -1442,8 +1436,8 @@
       <c r="B92" s="2">
         <v>164.84886966099481</v>
       </c>
-      <c r="C92" t="s">
-        <v>4</v>
+      <c r="C92">
+        <v>0.61645396458854695</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -1453,8 +1447,8 @@
       <c r="B93" s="2">
         <v>161.76906526893745</v>
       </c>
-      <c r="C93" t="s">
-        <v>3</v>
+      <c r="C93">
+        <v>0.61790323995086582</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -1464,8 +1458,8 @@
       <c r="B94" s="2">
         <v>160.61486231181669</v>
       </c>
-      <c r="C94" t="s">
-        <v>4</v>
+      <c r="C94">
+        <v>0.61862008582900208</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -1475,8 +1469,8 @@
       <c r="B95" s="2">
         <v>158.80504291720757</v>
       </c>
-      <c r="C95" t="s">
-        <v>3</v>
+      <c r="C95">
+        <v>0.62003852554531413</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -1486,8 +1480,8 @@
       <c r="B96" s="2">
         <v>157.64451990160416</v>
       </c>
-      <c r="C96" t="s">
-        <v>3</v>
+      <c r="C96">
+        <v>0.62144203431724399</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -1497,8 +1491,8 @@
       <c r="B97" s="2">
         <v>155.62829783977548</v>
       </c>
-      <c r="C97" t="s">
-        <v>3</v>
+      <c r="C97">
+        <v>0.62283092320613287</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -1508,8 +1502,8 @@
       <c r="B98" s="2">
         <v>154.03608938276528</v>
       </c>
-      <c r="C98" t="s">
-        <v>3</v>
+      <c r="C98">
+        <v>0.62420549365286826</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -1519,8 +1513,8 @@
       <c r="B99" s="2">
         <v>151.43489641565262</v>
       </c>
-      <c r="C99" t="s">
-        <v>3</v>
+      <c r="C99">
+        <v>0.62556603787055531</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -1530,8 +1524,8 @@
       <c r="B100" s="2">
         <v>150.57279304223351</v>
       </c>
-      <c r="C100" t="s">
-        <v>4</v>
+      <c r="C100">
+        <v>0.62623943854395603</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -1541,8 +1535,8 @@
       <c r="B101" s="2">
         <v>148.66491575352163</v>
       </c>
-      <c r="C101" t="s">
-        <v>3</v>
+      <c r="C101">
+        <v>0.62757277187728933</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -1552,8 +1546,8 @@
       <c r="B102" s="2">
         <v>146.42718031783576</v>
       </c>
-      <c r="C102" t="s">
-        <v>3</v>
+      <c r="C102">
+        <v>0.62889290389049068</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -1563,8 +1557,8 @@
       <c r="B103" s="2">
         <v>144.23349164467203</v>
       </c>
-      <c r="C103" t="s">
-        <v>3</v>
+      <c r="C103">
+        <v>0.63020009343297434</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -1574,8 +1568,8 @@
       <c r="B104" s="2">
         <v>142.6283887369998</v>
       </c>
-      <c r="C104" t="s">
-        <v>3</v>
+      <c r="C104">
+        <v>0.63149459181485135</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -1585,8 +1579,8 @@
       <c r="B105" s="2">
         <v>142.53507508154055</v>
       </c>
-      <c r="C105" t="s">
-        <v>3</v>
+      <c r="C105">
+        <v>0.63277664309690262</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -1596,8 +1590,8 @@
       <c r="B106" s="2">
         <v>142.24719414738706</v>
       </c>
-      <c r="C106" t="s">
-        <v>3</v>
+      <c r="C106">
+        <v>0.63404648436674393</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -1607,8 +1601,8 @@
       <c r="B107" s="2">
         <v>139.7282433900902</v>
       </c>
-      <c r="C107" t="s">
-        <v>4</v>
+      <c r="C107">
+        <v>0.634675415184354</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -1618,8 +1612,8 @@
       <c r="B108" s="2">
         <v>137.6072554379584</v>
       </c>
-      <c r="C108" t="s">
-        <v>3</v>
+      <c r="C108">
+        <v>0.63592152110335709</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -1629,8 +1623,8 @@
       <c r="B109" s="2">
         <v>135.01182035407643</v>
       </c>
-      <c r="C109" t="s">
-        <v>3</v>
+      <c r="C109">
+        <v>0.63715608900459164</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -1640,8 +1634,8 @@
       <c r="B110" s="2">
         <v>134.93400648781818</v>
       </c>
-      <c r="C110" t="s">
-        <v>3</v>
+      <c r="C110">
+        <v>0.63837933059480567</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -1651,8 +1645,8 @@
       <c r="B111" s="2">
         <v>134.53494321733049</v>
       </c>
-      <c r="C111" t="s">
-        <v>3</v>
+      <c r="C111">
+        <v>0.63959145180692689</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -1662,8 +1656,8 @@
       <c r="B112" s="2">
         <v>132.83710618494695</v>
       </c>
-      <c r="C112" t="s">
-        <v>3</v>
+      <c r="C112">
+        <v>0.64079265300812804</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -1673,8 +1667,8 @@
       <c r="B113" s="2">
         <v>131.82486032784024</v>
       </c>
-      <c r="C113" t="s">
-        <v>3</v>
+      <c r="C113">
+        <v>0.64198312919860423</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -1684,8 +1678,8 @@
       <c r="B114" s="2">
         <v>131.71039745836367</v>
       </c>
-      <c r="C114" t="s">
-        <v>3</v>
+      <c r="C114">
+        <v>0.64316307020155405</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -1695,8 +1689,8 @@
       <c r="B115" s="2">
         <v>131.82693278879327</v>
       </c>
-      <c r="C115" t="s">
-        <v>3</v>
+      <c r="C115">
+        <v>0.64433266084482888</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -1706,8 +1700,8 @@
       <c r="B116" s="2">
         <v>131.73981145901263</v>
       </c>
-      <c r="C116" t="s">
-        <v>3</v>
+      <c r="C116">
+        <v>0.64549208113468393</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -1717,8 +1711,8 @@
       <c r="B117" s="2">
         <v>129.51396258309407</v>
       </c>
-      <c r="C117" t="s">
-        <v>3</v>
+      <c r="C117">
+        <v>0.64664150642204021</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -1728,8 +1722,8 @@
       <c r="B118" s="2">
         <v>128.7135759536514</v>
       </c>
-      <c r="C118" t="s">
-        <v>4</v>
+      <c r="C118">
+        <v>0.64721130699184082</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -1739,8 +1733,8 @@
       <c r="B119" s="2">
         <v>128.16633234121292</v>
       </c>
-      <c r="C119" t="s">
-        <v>3</v>
+      <c r="C119">
+        <v>0.64834125049466562</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -1750,8 +1744,8 @@
       <c r="B120" s="2">
         <v>129.02703118337612</v>
       </c>
-      <c r="C120" t="s">
-        <v>4</v>
+      <c r="C120">
+        <v>0.64890147458430147</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -1761,8 +1755,8 @@
       <c r="B121" s="2">
         <v>127.65961093130163</v>
       </c>
-      <c r="C121" t="s">
-        <v>4</v>
+      <c r="C121">
+        <v>0.64945703013985701</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -1772,8 +1766,8 @@
       <c r="B122" s="2">
         <v>127.85964680538012</v>
       </c>
-      <c r="C122" t="s">
-        <v>4</v>
+      <c r="C122">
+        <v>0.65000799432718481</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -1783,8 +1777,8 @@
       <c r="B123" s="2">
         <v>128.02867656463337</v>
       </c>
-      <c r="C123" t="s">
-        <v>5</v>
+      <c r="C123">
+        <v>0.65000799432718481</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -1794,8 +1788,8 @@
       <c r="B124" s="2">
         <v>127.48919974321095</v>
       </c>
-      <c r="C124" t="s">
-        <v>3</v>
+      <c r="C124">
+        <v>0.65109200516729326</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -1805,8 +1799,8 @@
       <c r="B125" s="2">
         <v>125.72256423533356</v>
       </c>
-      <c r="C125" t="s">
-        <v>4</v>
+      <c r="C125">
+        <v>0.65162963957589537</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
